--- a/5_output.xlsx
+++ b/5_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>code</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>increase_ratio</t>
   </si>
   <si>
     <t>000750</t>
@@ -557,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,16 +693,19 @@
       <c r="AQ1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0.4207</v>
@@ -821,16 +827,19 @@
       <c r="AQ2">
         <v>5.3673</v>
       </c>
+      <c r="AR2">
+        <v>-0.06348099058249039</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0.3549</v>
@@ -952,16 +961,19 @@
       <c r="AQ3">
         <v>6.5031</v>
       </c>
+      <c r="AR3">
+        <v>2.062028224483098</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>-0.07400000000000001</v>
@@ -1083,16 +1095,19 @@
       <c r="AQ4">
         <v>3.7933</v>
       </c>
+      <c r="AR4">
+        <v>1.401954481162402</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>0.309</v>
@@ -1214,16 +1229,19 @@
       <c r="AQ5">
         <v>5.1999</v>
       </c>
+      <c r="AR5">
+        <v>2.477961432506887</v>
+      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>0.1431</v>
@@ -1345,16 +1363,19 @@
       <c r="AQ6">
         <v>3.4385</v>
       </c>
+      <c r="AR6">
+        <v>1.145040288969158</v>
+      </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0.4698</v>
@@ -1476,16 +1497,19 @@
       <c r="AQ7">
         <v>3.5963</v>
       </c>
+      <c r="AR7">
+        <v>1.099666388657214</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>0.1189</v>
@@ -1607,16 +1631,19 @@
       <c r="AQ8">
         <v>2.8471</v>
       </c>
+      <c r="AR8">
+        <v>1.829139847864248</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>0.1419</v>
@@ -1738,16 +1765,19 @@
       <c r="AQ9">
         <v>4.6004</v>
       </c>
+      <c r="AR9">
+        <v>1.817848410757946</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>0.1497</v>
@@ -1869,16 +1899,19 @@
       <c r="AQ10">
         <v>4.0015</v>
       </c>
+      <c r="AR10">
+        <v>1.912521440823328</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>-0.0254</v>
@@ -2000,16 +2033,19 @@
       <c r="AQ11">
         <v>3.2358</v>
       </c>
+      <c r="AR11">
+        <v>0.6213063763608087</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>2.4404</v>
@@ -2131,16 +2167,19 @@
       <c r="AQ12">
         <v>7.3384</v>
       </c>
+      <c r="AR12">
+        <v>0.2011381342727458</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>0.9076</v>
@@ -2262,16 +2301,19 @@
       <c r="AQ13">
         <v>2.821800000000001</v>
       </c>
+      <c r="AR13">
+        <v>1.105410317349364</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1.2233</v>
@@ -2393,16 +2435,19 @@
       <c r="AQ14">
         <v>8.575500000000002</v>
       </c>
+      <c r="AR14">
+        <v>1.483629560336763</v>
+      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>0.3215</v>
@@ -2524,16 +2569,19 @@
       <c r="AQ15">
         <v>4.298500000000001</v>
       </c>
+      <c r="AR15">
+        <v>0.4938101788170564</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>-0.2902</v>
@@ -2655,16 +2703,19 @@
       <c r="AQ16">
         <v>3.6599</v>
       </c>
+      <c r="AR16">
+        <v>2.958160729080364</v>
+      </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>0.0336</v>
@@ -2786,16 +2837,19 @@
       <c r="AQ17">
         <v>4.299200000000001</v>
       </c>
+      <c r="AR17">
+        <v>1.244850187265917</v>
+      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>0.2607</v>
@@ -2917,16 +2971,19 @@
       <c r="AQ18">
         <v>4.4767</v>
       </c>
+      <c r="AR18">
+        <v>3.177057356608479</v>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>1.6623</v>
@@ -3047,6 +3104,9 @@
       </c>
       <c r="AQ19">
         <v>13.7559</v>
+      </c>
+      <c r="AR19">
+        <v>1.355769230769231</v>
       </c>
     </row>
   </sheetData>
